--- a/posthoc_comparisons_EC_pairwise.xlsx
+++ b/posthoc_comparisons_EC_pairwise.xlsx
@@ -1,251 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27328"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://vanderbilt365-my.sharepoint.com/personal/lindsay_e_martin_vanderbilt_edu/Documents/Hillyer_Lab/Lytic_Immunity/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="7" documentId="11_751F5DD98F79A8D366075C52F37BD2728A4821B7" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1F3BF490-EA53-4E0F-AACF-E9BDA20107F2}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="73">
-  <si>
-    <t>contrast</t>
-  </si>
-  <si>
-    <t>ratio</t>
-  </si>
-  <si>
-    <t>SE</t>
-  </si>
-  <si>
-    <t>df</t>
-  </si>
-  <si>
-    <t>null</t>
-  </si>
-  <si>
-    <t>t.ratio</t>
-  </si>
-  <si>
-    <t>p.value</t>
-  </si>
-  <si>
-    <t>(Temperature_centered-1.2 Age_centered-1.25) / (Temperature_centered1.19 Age_centered-1.25)</t>
-  </si>
-  <si>
-    <t>(Temperature_centered-1.2 Age_centered-1.25) / (Temperature_centered0.23 Age_centered-1.25)</t>
-  </si>
-  <si>
-    <t>(Temperature_centered-1.2 Age_centered-1.25) / (Temperature_centered-1.2 Age_centered-0.47)</t>
-  </si>
-  <si>
-    <t>(Temperature_centered-1.2 Age_centered-1.25) / (Temperature_centered1.19 Age_centered-0.47)</t>
-  </si>
-  <si>
-    <t>(Temperature_centered-1.2 Age_centered-1.25) / (Temperature_centered0.23 Age_centered-0.47)</t>
-  </si>
-  <si>
-    <t>(Temperature_centered-1.2 Age_centered-1.25) / (Temperature_centered-1.2 Age_centered0.5)</t>
-  </si>
-  <si>
-    <t>(Temperature_centered-1.2 Age_centered-1.25) / Temperature_centered1.19 Age_centered0.5</t>
-  </si>
-  <si>
-    <t>(Temperature_centered-1.2 Age_centered-1.25) / Temperature_centered0.23 Age_centered0.5</t>
-  </si>
-  <si>
-    <t>(Temperature_centered-1.2 Age_centered-1.25) / (Temperature_centered-1.2 Age_centered1.48)</t>
-  </si>
-  <si>
-    <t>(Temperature_centered-1.2 Age_centered-1.25) / Temperature_centered1.19 Age_centered1.48</t>
-  </si>
-  <si>
-    <t>(Temperature_centered-1.2 Age_centered-1.25) / Temperature_centered0.23 Age_centered1.48</t>
-  </si>
-  <si>
-    <t>(Temperature_centered1.19 Age_centered-1.25) / (Temperature_centered0.23 Age_centered-1.25)</t>
-  </si>
-  <si>
-    <t>(Temperature_centered1.19 Age_centered-1.25) / (Temperature_centered-1.2 Age_centered-0.47)</t>
-  </si>
-  <si>
-    <t>(Temperature_centered1.19 Age_centered-1.25) / (Temperature_centered1.19 Age_centered-0.47)</t>
-  </si>
-  <si>
-    <t>(Temperature_centered1.19 Age_centered-1.25) / (Temperature_centered0.23 Age_centered-0.47)</t>
-  </si>
-  <si>
-    <t>(Temperature_centered1.19 Age_centered-1.25) / (Temperature_centered-1.2 Age_centered0.5)</t>
-  </si>
-  <si>
-    <t>(Temperature_centered1.19 Age_centered-1.25) / Temperature_centered1.19 Age_centered0.5</t>
-  </si>
-  <si>
-    <t>(Temperature_centered1.19 Age_centered-1.25) / Temperature_centered0.23 Age_centered0.5</t>
-  </si>
-  <si>
-    <t>(Temperature_centered1.19 Age_centered-1.25) / (Temperature_centered-1.2 Age_centered1.48)</t>
-  </si>
-  <si>
-    <t>(Temperature_centered1.19 Age_centered-1.25) / Temperature_centered1.19 Age_centered1.48</t>
-  </si>
-  <si>
-    <t>(Temperature_centered1.19 Age_centered-1.25) / Temperature_centered0.23 Age_centered1.48</t>
-  </si>
-  <si>
-    <t>(Temperature_centered0.23 Age_centered-1.25) / (Temperature_centered-1.2 Age_centered-0.47)</t>
-  </si>
-  <si>
-    <t>(Temperature_centered0.23 Age_centered-1.25) / (Temperature_centered1.19 Age_centered-0.47)</t>
-  </si>
-  <si>
-    <t>(Temperature_centered0.23 Age_centered-1.25) / (Temperature_centered0.23 Age_centered-0.47)</t>
-  </si>
-  <si>
-    <t>(Temperature_centered0.23 Age_centered-1.25) / (Temperature_centered-1.2 Age_centered0.5)</t>
-  </si>
-  <si>
-    <t>(Temperature_centered0.23 Age_centered-1.25) / Temperature_centered1.19 Age_centered0.5</t>
-  </si>
-  <si>
-    <t>(Temperature_centered0.23 Age_centered-1.25) / Temperature_centered0.23 Age_centered0.5</t>
-  </si>
-  <si>
-    <t>(Temperature_centered0.23 Age_centered-1.25) / (Temperature_centered-1.2 Age_centered1.48)</t>
-  </si>
-  <si>
-    <t>(Temperature_centered0.23 Age_centered-1.25) / Temperature_centered1.19 Age_centered1.48</t>
-  </si>
-  <si>
-    <t>(Temperature_centered0.23 Age_centered-1.25) / Temperature_centered0.23 Age_centered1.48</t>
-  </si>
-  <si>
-    <t>(Temperature_centered-1.2 Age_centered-0.47) / (Temperature_centered1.19 Age_centered-0.47)</t>
-  </si>
-  <si>
-    <t>(Temperature_centered-1.2 Age_centered-0.47) / (Temperature_centered0.23 Age_centered-0.47)</t>
-  </si>
-  <si>
-    <t>(Temperature_centered-1.2 Age_centered-0.47) / (Temperature_centered-1.2 Age_centered0.5)</t>
-  </si>
-  <si>
-    <t>(Temperature_centered-1.2 Age_centered-0.47) / Temperature_centered1.19 Age_centered0.5</t>
-  </si>
-  <si>
-    <t>(Temperature_centered-1.2 Age_centered-0.47) / Temperature_centered0.23 Age_centered0.5</t>
-  </si>
-  <si>
-    <t>(Temperature_centered-1.2 Age_centered-0.47) / (Temperature_centered-1.2 Age_centered1.48)</t>
-  </si>
-  <si>
-    <t>(Temperature_centered-1.2 Age_centered-0.47) / Temperature_centered1.19 Age_centered1.48</t>
-  </si>
-  <si>
-    <t>(Temperature_centered-1.2 Age_centered-0.47) / Temperature_centered0.23 Age_centered1.48</t>
-  </si>
-  <si>
-    <t>(Temperature_centered1.19 Age_centered-0.47) / (Temperature_centered0.23 Age_centered-0.47)</t>
-  </si>
-  <si>
-    <t>(Temperature_centered1.19 Age_centered-0.47) / (Temperature_centered-1.2 Age_centered0.5)</t>
-  </si>
-  <si>
-    <t>(Temperature_centered1.19 Age_centered-0.47) / Temperature_centered1.19 Age_centered0.5</t>
-  </si>
-  <si>
-    <t>(Temperature_centered1.19 Age_centered-0.47) / Temperature_centered0.23 Age_centered0.5</t>
-  </si>
-  <si>
-    <t>(Temperature_centered1.19 Age_centered-0.47) / (Temperature_centered-1.2 Age_centered1.48)</t>
-  </si>
-  <si>
-    <t>(Temperature_centered1.19 Age_centered-0.47) / Temperature_centered1.19 Age_centered1.48</t>
-  </si>
-  <si>
-    <t>(Temperature_centered1.19 Age_centered-0.47) / Temperature_centered0.23 Age_centered1.48</t>
-  </si>
-  <si>
-    <t>(Temperature_centered0.23 Age_centered-0.47) / (Temperature_centered-1.2 Age_centered0.5)</t>
-  </si>
-  <si>
-    <t>(Temperature_centered0.23 Age_centered-0.47) / Temperature_centered1.19 Age_centered0.5</t>
-  </si>
-  <si>
-    <t>(Temperature_centered0.23 Age_centered-0.47) / Temperature_centered0.23 Age_centered0.5</t>
-  </si>
-  <si>
-    <t>(Temperature_centered0.23 Age_centered-0.47) / (Temperature_centered-1.2 Age_centered1.48)</t>
-  </si>
-  <si>
-    <t>(Temperature_centered0.23 Age_centered-0.47) / Temperature_centered1.19 Age_centered1.48</t>
-  </si>
-  <si>
-    <t>(Temperature_centered0.23 Age_centered-0.47) / Temperature_centered0.23 Age_centered1.48</t>
-  </si>
-  <si>
-    <t>(Temperature_centered-1.2 Age_centered0.5) / Temperature_centered1.19 Age_centered0.5</t>
-  </si>
-  <si>
-    <t>(Temperature_centered-1.2 Age_centered0.5) / Temperature_centered0.23 Age_centered0.5</t>
-  </si>
-  <si>
-    <t>(Temperature_centered-1.2 Age_centered0.5) / (Temperature_centered-1.2 Age_centered1.48)</t>
-  </si>
-  <si>
-    <t>(Temperature_centered-1.2 Age_centered0.5) / Temperature_centered1.19 Age_centered1.48</t>
-  </si>
-  <si>
-    <t>(Temperature_centered-1.2 Age_centered0.5) / Temperature_centered0.23 Age_centered1.48</t>
-  </si>
-  <si>
-    <t>Temperature_centered1.19 Age_centered0.5 / Temperature_centered0.23 Age_centered0.5</t>
-  </si>
-  <si>
-    <t>Temperature_centered1.19 Age_centered0.5 / (Temperature_centered-1.2 Age_centered1.48)</t>
-  </si>
-  <si>
-    <t>Temperature_centered1.19 Age_centered0.5 / Temperature_centered1.19 Age_centered1.48</t>
-  </si>
-  <si>
-    <t>Temperature_centered1.19 Age_centered0.5 / Temperature_centered0.23 Age_centered1.48</t>
-  </si>
-  <si>
-    <t>Temperature_centered0.23 Age_centered0.5 / (Temperature_centered-1.2 Age_centered1.48)</t>
-  </si>
-  <si>
-    <t>Temperature_centered0.23 Age_centered0.5 / Temperature_centered1.19 Age_centered1.48</t>
-  </si>
-  <si>
-    <t>Temperature_centered0.23 Age_centered0.5 / Temperature_centered0.23 Age_centered1.48</t>
-  </si>
-  <si>
-    <t>(Temperature_centered-1.2 Age_centered1.48) / Temperature_centered1.19 Age_centered1.48</t>
-  </si>
-  <si>
-    <t>(Temperature_centered-1.2 Age_centered1.48) / Temperature_centered0.23 Age_centered1.48</t>
-  </si>
-  <si>
-    <t>Temperature_centered1.19 Age_centered1.48 / Temperature_centered0.23 Age_centered1.48</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -262,18 +32,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -288,33 +52,24 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -352,7 +107,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -386,7 +141,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -421,10 +175,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -597,50 +350,61 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="A63" sqref="A63"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="41.1796875" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>7</v>
+    <row r="1" s="1" customFormat="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>contrast</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>ratio</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>SE</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>df</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>t.ratio</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>p.value</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>(Temperature_centered-1.2 Age_centered-1.25) / (Temperature_centered1.19 Age_centered-1.25)</t>
+        </is>
       </c>
       <c r="B2">
-        <v>1.2405491353739759</v>
+        <v>1.240549135373976</v>
       </c>
       <c r="C2">
-        <v>0.44755031496042952</v>
+        <v>0.4475503149604295</v>
       </c>
       <c r="D2">
         <v>57.34652474197982</v>
@@ -649,162 +413,176 @@
         <v>1</v>
       </c>
       <c r="F2">
-        <v>0.59748699532293503</v>
+        <v>0.597486995322935</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>8</v>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>(Temperature_centered-1.2 Age_centered-1.25) / (Temperature_centered0.23 Age_centered-1.25)</t>
+        </is>
       </c>
       <c r="B3">
-        <v>0.75844980699935505</v>
+        <v>0.758449806999355</v>
       </c>
       <c r="C3">
-        <v>0.26869962600036651</v>
+        <v>0.2686996260003665</v>
       </c>
       <c r="D3">
-        <v>59.125862051650508</v>
+        <v>59.12586205165051</v>
       </c>
       <c r="E3">
         <v>1</v>
       </c>
       <c r="F3">
-        <v>-0.78040742637504423</v>
+        <v>-0.7804074263750442</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>9</v>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>(Temperature_centered-1.2 Age_centered-1.25) / (Temperature_centered-1.2 Age_centered-0.47)</t>
+        </is>
       </c>
       <c r="B4">
-        <v>0.83279744604011385</v>
+        <v>0.8327974460401139</v>
       </c>
       <c r="C4">
-        <v>0.20621263581333571</v>
+        <v>0.2062126358133357</v>
       </c>
       <c r="D4">
-        <v>60.658939888939599</v>
+        <v>60.6589398889396</v>
       </c>
       <c r="E4">
         <v>1</v>
       </c>
       <c r="F4">
-        <v>-0.73891030589003104</v>
+        <v>-0.738910305890031</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>10</v>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>(Temperature_centered-1.2 Age_centered-1.25) / (Temperature_centered1.19 Age_centered-0.47)</t>
+        </is>
       </c>
       <c r="B5">
         <v>1.578909207334066</v>
       </c>
       <c r="C5">
-        <v>0.56734726356236997</v>
+        <v>0.56734726356237</v>
       </c>
       <c r="D5">
-        <v>58.039312186178961</v>
+        <v>58.03931218617896</v>
       </c>
       <c r="E5">
         <v>1</v>
       </c>
       <c r="F5">
-        <v>1.2710766983765951</v>
+        <v>1.271076698376595</v>
       </c>
       <c r="G5">
-        <v>0.99999980595482019</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>11</v>
+        <v>0.9999998059548202</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>(Temperature_centered-1.2 Age_centered-1.25) / (Temperature_centered0.23 Age_centered-0.47)</t>
+        </is>
       </c>
       <c r="B6">
-        <v>0.55819582322597994</v>
+        <v>0.5581958232259799</v>
       </c>
       <c r="C6">
         <v>0.1849786036706168</v>
       </c>
       <c r="D6">
-        <v>62.057532625924203</v>
+        <v>62.0575326259242</v>
       </c>
       <c r="E6">
         <v>1</v>
       </c>
       <c r="F6">
-        <v>-1.7594117545004699</v>
+        <v>-1.75941175450047</v>
       </c>
       <c r="G6">
-        <v>0.99681777482788059</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
-        <v>12</v>
+        <v>0.9968177748278806</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>(Temperature_centered-1.2 Age_centered-1.25) / (Temperature_centered-1.2 Age_centered0.5)</t>
+        </is>
       </c>
       <c r="B7">
-        <v>0.70564443811016508</v>
+        <v>0.7056444381101651</v>
       </c>
       <c r="C7">
         <v>0.2462897101474685</v>
       </c>
       <c r="D7">
-        <v>60.552566141162217</v>
+        <v>60.55256614116222</v>
       </c>
       <c r="E7">
         <v>1</v>
       </c>
       <c r="F7">
-        <v>-0.99889904516100925</v>
+        <v>-0.9988990451610092</v>
       </c>
       <c r="G7">
-        <v>0.99999999999260702</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
-        <v>13</v>
+        <v>0.999999999992607</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>(Temperature_centered-1.2 Age_centered-1.25) / Temperature_centered1.19 Age_centered0.5</t>
+        </is>
       </c>
       <c r="B8">
         <v>2.286061569269136</v>
       </c>
       <c r="C8">
-        <v>0.79149644050258972</v>
+        <v>0.7914964405025897</v>
       </c>
       <c r="D8">
-        <v>57.489416849916758</v>
+        <v>57.48941684991676</v>
       </c>
       <c r="E8">
         <v>1</v>
       </c>
       <c r="F8">
-        <v>2.3881161424188591</v>
+        <v>2.388116142418859</v>
       </c>
       <c r="G8">
-        <v>0.74067210828759866</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
-        <v>14</v>
+        <v>0.7406721082875987</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>(Temperature_centered-1.2 Age_centered-1.25) / Temperature_centered0.23 Age_centered0.5</t>
+        </is>
       </c>
       <c r="B9">
-        <v>0.65706625765686555</v>
+        <v>0.6570662576568655</v>
       </c>
       <c r="C9">
-        <v>0.23060938583072851</v>
+        <v>0.2306093858307285</v>
       </c>
       <c r="D9">
-        <v>62.012425545029537</v>
+        <v>62.01242554502954</v>
       </c>
       <c r="E9">
         <v>1</v>
@@ -813,41 +591,45 @@
         <v>-1.196605199274533</v>
       </c>
       <c r="G9">
-        <v>0.99999998078738406</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
-        <v>15</v>
+        <v>0.9999999807873841</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>(Temperature_centered-1.2 Age_centered-1.25) / (Temperature_centered-1.2 Age_centered1.48)</t>
+        </is>
       </c>
       <c r="B10">
-        <v>0.63992968317771493</v>
+        <v>0.6399296831777149</v>
       </c>
       <c r="C10">
-        <v>0.24160937688403131</v>
+        <v>0.2416093768840313</v>
       </c>
       <c r="D10">
-        <v>56.982616073445882</v>
+        <v>56.98261607344588</v>
       </c>
       <c r="E10">
         <v>1</v>
       </c>
       <c r="F10">
-        <v>-1.1823327423575369</v>
+        <v>-1.182332742357537</v>
       </c>
       <c r="G10">
-        <v>0.99999998855078076</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
-        <v>16</v>
+        <v>0.9999999885507808</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>(Temperature_centered-1.2 Age_centered-1.25) / Temperature_centered1.19 Age_centered1.48</t>
+        </is>
       </c>
       <c r="B11">
         <v>3.595684951010286</v>
       </c>
       <c r="C11">
-        <v>1.5387802202753651</v>
+        <v>1.538780220275365</v>
       </c>
       <c r="D11">
         <v>59.94014326569242</v>
@@ -859,90 +641,98 @@
         <v>2.990369923425825</v>
       </c>
       <c r="G11">
-        <v>0.23437430495488881</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
-        <v>17</v>
+        <v>0.2343743049548888</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>(Temperature_centered-1.2 Age_centered-1.25) / Temperature_centered0.23 Age_centered1.48</t>
+        </is>
       </c>
       <c r="B12">
         <v>1.429843190133288</v>
       </c>
       <c r="C12">
-        <v>0.73322146617258621</v>
+        <v>0.7332214661725862</v>
       </c>
       <c r="D12">
-        <v>59.874995015653447</v>
+        <v>59.87499501565345</v>
       </c>
       <c r="E12">
         <v>1</v>
       </c>
       <c r="F12">
-        <v>0.69728123185866209</v>
+        <v>0.6972812318586621</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
-        <v>18</v>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>(Temperature_centered1.19 Age_centered-1.25) / (Temperature_centered0.23 Age_centered-1.25)</t>
+        </is>
       </c>
       <c r="B13">
-        <v>0.61138231882343985</v>
+        <v>0.6113823188234399</v>
       </c>
       <c r="C13">
         <v>0.2035770202208074</v>
       </c>
       <c r="D13">
-        <v>59.941746354961943</v>
+        <v>59.94174635496194</v>
       </c>
       <c r="E13">
         <v>1</v>
       </c>
       <c r="F13">
-        <v>-1.4776724171282209</v>
+        <v>-1.477672417128221</v>
       </c>
       <c r="G13">
-        <v>0.99996697937682433</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A14" t="s">
-        <v>19</v>
+        <v>0.9999669793768243</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>(Temperature_centered1.19 Age_centered-1.25) / (Temperature_centered-1.2 Age_centered-0.47)</t>
+        </is>
       </c>
       <c r="B14">
-        <v>0.67131355163055162</v>
+        <v>0.6713135516305516</v>
       </c>
       <c r="C14">
-        <v>0.24352756796631431</v>
+        <v>0.2435275679663143</v>
       </c>
       <c r="D14">
-        <v>57.758573035592953</v>
+        <v>57.75857303559295</v>
       </c>
       <c r="E14">
         <v>1</v>
       </c>
       <c r="F14">
-        <v>-1.0985662994938341</v>
+        <v>-1.098566299493834</v>
       </c>
       <c r="G14">
-        <v>0.99999999947237739</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A15" t="s">
-        <v>20</v>
+        <v>0.9999999994723774</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>(Temperature_centered1.19 Age_centered-1.25) / (Temperature_centered1.19 Age_centered-0.47)</t>
+        </is>
       </c>
       <c r="B15">
         <v>1.272750238029136</v>
       </c>
       <c r="C15">
-        <v>0.27411504440854317</v>
+        <v>0.2741150444085432</v>
       </c>
       <c r="D15">
-        <v>56.487178198509717</v>
+        <v>56.48717819850972</v>
       </c>
       <c r="E15">
         <v>1</v>
@@ -954,18 +744,20 @@
         <v>0.9999999988079209</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A16" t="s">
-        <v>21</v>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>(Temperature_centered1.19 Age_centered-1.25) / (Temperature_centered0.23 Age_centered-0.47)</t>
+        </is>
       </c>
       <c r="B16">
-        <v>0.44995865726649031</v>
+        <v>0.4499586572664903</v>
       </c>
       <c r="C16">
-        <v>0.14740402207235589</v>
+        <v>0.1474040220723559</v>
       </c>
       <c r="D16">
-        <v>61.465101972425011</v>
+        <v>61.46510197242501</v>
       </c>
       <c r="E16">
         <v>1</v>
@@ -974,21 +766,23 @@
         <v>-2.437767888484323</v>
       </c>
       <c r="G16">
-        <v>0.69199736618484209</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A17" t="s">
-        <v>22</v>
+        <v>0.6919973661848421</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>(Temperature_centered1.19 Age_centered-1.25) / (Temperature_centered-1.2 Age_centered0.5)</t>
+        </is>
       </c>
       <c r="B17">
-        <v>0.56881619436818298</v>
+        <v>0.568816194368183</v>
       </c>
       <c r="C17">
         <v>0.2078293846839514</v>
       </c>
       <c r="D17">
-        <v>59.352698043221167</v>
+        <v>59.35269804322117</v>
       </c>
       <c r="E17">
         <v>1</v>
@@ -1000,41 +794,45 @@
         <v>0.9998801496541343</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A18" t="s">
-        <v>23</v>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>(Temperature_centered1.19 Age_centered-1.25) / Temperature_centered1.19 Age_centered0.5</t>
+        </is>
       </c>
       <c r="B18">
-        <v>1.8427819616995491</v>
+        <v>1.842781961699549</v>
       </c>
       <c r="C18">
-        <v>0.61612733242626649</v>
+        <v>0.6161273324262665</v>
       </c>
       <c r="D18">
-        <v>56.680909645808818</v>
+        <v>56.68090964580882</v>
       </c>
       <c r="E18">
         <v>1</v>
       </c>
       <c r="F18">
-        <v>1.8282731517957169</v>
+        <v>1.828273151795717</v>
       </c>
       <c r="G18">
-        <v>0.99317198091569081</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A19" t="s">
-        <v>24</v>
+        <v>0.9931719809156908</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>(Temperature_centered1.19 Age_centered-1.25) / Temperature_centered0.23 Age_centered0.5</t>
+        </is>
       </c>
       <c r="B19">
-        <v>0.52965758382378469</v>
+        <v>0.5296575838237847</v>
       </c>
       <c r="C19">
-        <v>0.19933138602694919</v>
+        <v>0.1993313860269492</v>
       </c>
       <c r="D19">
-        <v>61.035528518526213</v>
+        <v>61.03552851852621</v>
       </c>
       <c r="E19">
         <v>1</v>
@@ -1043,41 +841,45 @@
         <v>-1.688697420161523</v>
       </c>
       <c r="G19">
-        <v>0.99875536391693098</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A20" t="s">
-        <v>25</v>
+        <v>0.998755363916931</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>(Temperature_centered1.19 Age_centered-1.25) / (Temperature_centered-1.2 Age_centered1.48)</t>
+        </is>
       </c>
       <c r="B20">
-        <v>0.51584388310810569</v>
+        <v>0.5158438831081057</v>
       </c>
       <c r="C20">
-        <v>0.17328855933539969</v>
+        <v>0.1732885593353997</v>
       </c>
       <c r="D20">
-        <v>58.908117888076063</v>
+        <v>58.90811788807606</v>
       </c>
       <c r="E20">
         <v>1</v>
       </c>
       <c r="F20">
-        <v>-1.9704903372686271</v>
+        <v>-1.970490337268627</v>
       </c>
       <c r="G20">
-        <v>0.97343354434660723</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A21" t="s">
-        <v>26</v>
+        <v>0.9734335443466072</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>(Temperature_centered1.19 Age_centered-1.25) / Temperature_centered1.19 Age_centered1.48</t>
+        </is>
       </c>
       <c r="B21">
-        <v>2.8984623409747732</v>
+        <v>2.898462340974773</v>
       </c>
       <c r="C21">
-        <v>1.5008244559060431</v>
+        <v>1.500824455906043</v>
       </c>
       <c r="D21">
         <v>59.83000386447079</v>
@@ -1086,15 +888,17 @@
         <v>1</v>
       </c>
       <c r="F21">
-        <v>2.0551948709039092</v>
+        <v>2.055194870903909</v>
       </c>
       <c r="G21">
-        <v>0.94950846830578772</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A22" t="s">
-        <v>27</v>
+        <v>0.9495084683057877</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>(Temperature_centered1.19 Age_centered-1.25) / Temperature_centered0.23 Age_centered1.48</t>
+        </is>
       </c>
       <c r="B22">
         <v>1.152588921600632</v>
@@ -1109,21 +913,23 @@
         <v>1</v>
       </c>
       <c r="F22">
-        <v>0.25539724796155699</v>
+        <v>0.255397247961557</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A23" t="s">
-        <v>28</v>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>(Temperature_centered0.23 Age_centered-1.25) / (Temperature_centered-1.2 Age_centered-0.47)</t>
+        </is>
       </c>
       <c r="B23">
         <v>1.098025786749026</v>
       </c>
       <c r="C23">
-        <v>0.32708836774958261</v>
+        <v>0.3270883677495826</v>
       </c>
       <c r="D23">
         <v>56.40522908197714</v>
@@ -1132,47 +938,51 @@
         <v>1</v>
       </c>
       <c r="F23">
-        <v>0.31392310059876821</v>
+        <v>0.3139231005987682</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A24" t="s">
-        <v>29</v>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>(Temperature_centered0.23 Age_centered-1.25) / (Temperature_centered1.19 Age_centered-0.47)</t>
+        </is>
       </c>
       <c r="B24">
-        <v>2.0817583349130042</v>
+        <v>2.081758334913004</v>
       </c>
       <c r="C24">
-        <v>0.64580479009579184</v>
+        <v>0.6458047900957918</v>
       </c>
       <c r="D24">
-        <v>59.030790921909123</v>
+        <v>59.03079092190912</v>
       </c>
       <c r="E24">
         <v>1</v>
       </c>
       <c r="F24">
-        <v>2.3635192372056961</v>
+        <v>2.363519237205696</v>
       </c>
       <c r="G24">
-        <v>0.76036946957594531</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A25" t="s">
-        <v>30</v>
+        <v>0.7603694695759453</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>(Temperature_centered0.23 Age_centered-1.25) / (Temperature_centered0.23 Age_centered-0.47)</t>
+        </is>
       </c>
       <c r="B25">
-        <v>0.73596936550668091</v>
+        <v>0.7359693655066809</v>
       </c>
       <c r="C25">
-        <v>0.20699430717472481</v>
+        <v>0.2069943071747248</v>
       </c>
       <c r="D25">
-        <v>58.499875267558771</v>
+        <v>58.49987526755877</v>
       </c>
       <c r="E25">
         <v>1</v>
@@ -1181,21 +991,23 @@
         <v>-1.089999839313152</v>
       </c>
       <c r="G25">
-        <v>0.99999999962271813</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A26" t="s">
-        <v>31</v>
+        <v>0.9999999996227181</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>(Temperature_centered0.23 Age_centered-1.25) / (Temperature_centered-1.2 Age_centered0.5)</t>
+        </is>
       </c>
       <c r="B26">
-        <v>0.93037723999416233</v>
+        <v>0.9303772399941623</v>
       </c>
       <c r="C26">
-        <v>0.29064818572984807</v>
+        <v>0.2906481857298481</v>
       </c>
       <c r="D26">
-        <v>55.959232290731507</v>
+        <v>55.95923229073151</v>
       </c>
       <c r="E26">
         <v>1</v>
@@ -1207,130 +1019,142 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A27" t="s">
-        <v>32</v>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>(Temperature_centered0.23 Age_centered-1.25) / Temperature_centered1.19 Age_centered0.5</t>
+        </is>
       </c>
       <c r="B27">
-        <v>3.0141237405194299</v>
+        <v>3.01412374051943</v>
       </c>
       <c r="C27">
         <v>1.116734487753571</v>
       </c>
       <c r="D27">
-        <v>58.013950077507168</v>
+        <v>58.01395007750717</v>
       </c>
       <c r="E27">
         <v>1</v>
       </c>
       <c r="F27">
-        <v>2.9778880768092599</v>
+        <v>2.97788807680926</v>
       </c>
       <c r="G27">
-        <v>0.24407256272196781</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A28" t="s">
-        <v>33</v>
+        <v>0.2440725627219678</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>(Temperature_centered0.23 Age_centered-1.25) / Temperature_centered0.23 Age_centered0.5</t>
+        </is>
       </c>
       <c r="B28">
-        <v>0.86632793837262367</v>
+        <v>0.8663279383726237</v>
       </c>
       <c r="C28">
-        <v>0.27218863259269621</v>
+        <v>0.2721886325926962</v>
       </c>
       <c r="D28">
-        <v>58.053203036827398</v>
+        <v>58.0532030368274</v>
       </c>
       <c r="E28">
         <v>1</v>
       </c>
       <c r="F28">
-        <v>-0.45670871614871472</v>
+        <v>-0.4567087161487147</v>
       </c>
       <c r="G28">
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A29" t="s">
-        <v>34</v>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>(Temperature_centered0.23 Age_centered-1.25) / (Temperature_centered-1.2 Age_centered1.48)</t>
+        </is>
       </c>
       <c r="B29">
-        <v>0.84373372802276836</v>
+        <v>0.8437337280227684</v>
       </c>
       <c r="C29">
-        <v>0.32162578441872391</v>
+        <v>0.3216257844187239</v>
       </c>
       <c r="D29">
-        <v>54.765173743565683</v>
+        <v>54.76517374356568</v>
       </c>
       <c r="E29">
         <v>1</v>
       </c>
       <c r="F29">
-        <v>-0.44575350133164759</v>
+        <v>-0.4457535013316476</v>
       </c>
       <c r="G29">
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A30" t="s">
-        <v>35</v>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>(Temperature_centered0.23 Age_centered-1.25) / Temperature_centered1.19 Age_centered1.48</t>
+        </is>
       </c>
       <c r="B30">
         <v>4.740834420191689</v>
       </c>
       <c r="C30">
-        <v>2.7109070928410528</v>
+        <v>2.710907092841053</v>
       </c>
       <c r="D30">
-        <v>60.346481263181879</v>
+        <v>60.34648126318188</v>
       </c>
       <c r="E30">
         <v>1</v>
       </c>
       <c r="F30">
-        <v>2.7215056263534421</v>
+        <v>2.721505626353442</v>
       </c>
       <c r="G30">
-        <v>0.42999401570392642</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A31" t="s">
-        <v>36</v>
+        <v>0.4299940157039264</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>(Temperature_centered0.23 Age_centered-1.25) / Temperature_centered0.23 Age_centered1.48</t>
+        </is>
       </c>
       <c r="B31">
         <v>1.885217949741667</v>
       </c>
       <c r="C31">
-        <v>0.65067703225473783</v>
+        <v>0.6506770322547378</v>
       </c>
       <c r="D31">
-        <v>59.055657324690678</v>
+        <v>59.05565732469068</v>
       </c>
       <c r="E31">
         <v>1</v>
       </c>
       <c r="F31">
-        <v>1.8370251444106569</v>
+        <v>1.837025144410657</v>
       </c>
       <c r="G31">
-        <v>0.99238545284142121</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A32" t="s">
-        <v>37</v>
+        <v>0.9923854528414212</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>(Temperature_centered-1.2 Age_centered-0.47) / (Temperature_centered1.19 Age_centered-0.47)</t>
+        </is>
       </c>
       <c r="B32">
-        <v>1.8959102418501099</v>
+        <v>1.89591024185011</v>
       </c>
       <c r="C32">
-        <v>0.47121304877132542</v>
+        <v>0.4712130487713254</v>
       </c>
       <c r="D32">
         <v>58.78319649521039</v>
@@ -1342,44 +1166,48 @@
         <v>2.573808187932332</v>
       </c>
       <c r="G32">
-        <v>0.56694648142328785</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A33" t="s">
-        <v>38</v>
+        <v>0.5669464814232879</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>(Temperature_centered-1.2 Age_centered-0.47) / (Temperature_centered0.23 Age_centered-0.47)</t>
+        </is>
       </c>
       <c r="B33">
-        <v>0.67026601231806959</v>
+        <v>0.6702660123180696</v>
       </c>
       <c r="C33">
-        <v>0.17797409271089509</v>
+        <v>0.1779740927108951</v>
       </c>
       <c r="D33">
-        <v>59.982870534661622</v>
+        <v>59.98287053466162</v>
       </c>
       <c r="E33">
         <v>1</v>
       </c>
       <c r="F33">
-        <v>-1.5067386066271291</v>
+        <v>-1.506738606627129</v>
       </c>
       <c r="G33">
-        <v>0.99994077377019774</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A34" t="s">
-        <v>39</v>
+        <v>0.9999407737701977</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>(Temperature_centered-1.2 Age_centered-0.47) / (Temperature_centered-1.2 Age_centered0.5)</t>
+        </is>
       </c>
       <c r="B34">
-        <v>0.84731820620421994</v>
+        <v>0.8473182062042199</v>
       </c>
       <c r="C34">
         <v>0.1162229455565158</v>
       </c>
       <c r="D34">
-        <v>58.075416645591922</v>
+        <v>58.07541664559192</v>
       </c>
       <c r="E34">
         <v>1</v>
@@ -1388,87 +1216,95 @@
         <v>-1.207875139326205</v>
       </c>
       <c r="G34">
-        <v>0.99999997282500419</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="B35" s="2">
-        <v>2.7450391210241789</v>
-      </c>
-      <c r="C35" s="2">
-        <v>0.75602344640814545</v>
-      </c>
-      <c r="D35" s="2">
-        <v>60.377949706072307</v>
-      </c>
-      <c r="E35" s="2">
-        <v>1</v>
-      </c>
-      <c r="F35" s="2">
-        <v>3.6664572890053622</v>
-      </c>
-      <c r="G35" s="2">
-        <v>3.3816445118216687E-2</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A36" t="s">
-        <v>41</v>
+        <v>0.9999999728250042</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>(Temperature_centered-1.2 Age_centered-0.47) / Temperature_centered1.19 Age_centered0.5</t>
+        </is>
+      </c>
+      <c r="B35">
+        <v>2.745039121024179</v>
+      </c>
+      <c r="C35">
+        <v>0.7560234464081454</v>
+      </c>
+      <c r="D35">
+        <v>60.37794970607231</v>
+      </c>
+      <c r="E35">
+        <v>1</v>
+      </c>
+      <c r="F35">
+        <v>3.666457289005362</v>
+      </c>
+      <c r="G35">
+        <v>0.03381644511821669</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>(Temperature_centered-1.2 Age_centered-0.47) / Temperature_centered0.23 Age_centered0.5</t>
+        </is>
       </c>
       <c r="B36">
-        <v>0.78898687883970309</v>
+        <v>0.7889868788397031</v>
       </c>
       <c r="C36">
-        <v>0.22199672220306821</v>
+        <v>0.2219967222030682</v>
       </c>
       <c r="D36">
-        <v>61.292664374036157</v>
+        <v>61.29266437403616</v>
       </c>
       <c r="E36">
         <v>1</v>
       </c>
       <c r="F36">
-        <v>-0.84232910105558167</v>
+        <v>-0.8423291010555817</v>
       </c>
       <c r="G36">
-        <v>0.99999999999999833</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A37" t="s">
-        <v>42</v>
+        <v>0.9999999999999983</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>(Temperature_centered-1.2 Age_centered-0.47) / (Temperature_centered-1.2 Age_centered1.48)</t>
+        </is>
       </c>
       <c r="B37">
-        <v>0.76840975704300019</v>
+        <v>0.7684097570430002</v>
       </c>
       <c r="C37">
-        <v>0.26856800571679768</v>
+        <v>0.2685680057167977</v>
       </c>
       <c r="D37">
-        <v>55.439409743755142</v>
+        <v>55.43940974375514</v>
       </c>
       <c r="E37">
         <v>1</v>
       </c>
       <c r="F37">
-        <v>-0.75371537301369418</v>
+        <v>-0.7537153730136942</v>
       </c>
       <c r="G37">
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A38" t="s">
-        <v>43</v>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>(Temperature_centered-1.2 Age_centered-0.47) / Temperature_centered1.19 Age_centered1.48</t>
+        </is>
       </c>
       <c r="B38">
-        <v>4.3175984365796056</v>
+        <v>4.317598436579606</v>
       </c>
       <c r="C38">
-        <v>2.3059649264854309</v>
+        <v>2.305964926485431</v>
       </c>
       <c r="D38">
         <v>61.76962139676489</v>
@@ -1477,93 +1313,101 @@
         <v>1</v>
       </c>
       <c r="F38">
-        <v>2.7387009528204129</v>
+        <v>2.738700952820413</v>
       </c>
       <c r="G38">
-        <v>0.41341014021016631</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A39" t="s">
-        <v>44</v>
+        <v>0.4134101402101663</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>(Temperature_centered-1.2 Age_centered-0.47) / Temperature_centered0.23 Age_centered1.48</t>
+        </is>
       </c>
       <c r="B39">
         <v>1.71691591626761</v>
       </c>
       <c r="C39">
-        <v>0.79140610586567339</v>
+        <v>0.7914061058656734</v>
       </c>
       <c r="D39">
-        <v>59.861126764287206</v>
+        <v>59.86112676428721</v>
       </c>
       <c r="E39">
         <v>1</v>
       </c>
       <c r="F39">
-        <v>1.1726519200849139</v>
+        <v>1.172651920084914</v>
       </c>
       <c r="G39">
-        <v>0.99999999163556397</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="B40" s="2">
-        <v>0.35353256579488462</v>
-      </c>
-      <c r="C40" s="2">
-        <v>9.925677644693226E-2</v>
-      </c>
-      <c r="D40" s="2">
+        <v>0.999999991635564</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>(Temperature_centered1.19 Age_centered-0.47) / (Temperature_centered0.23 Age_centered-0.47)</t>
+        </is>
+      </c>
+      <c r="B40">
+        <v>0.3535325657948846</v>
+      </c>
+      <c r="C40">
+        <v>0.09925677644693226</v>
+      </c>
+      <c r="D40">
         <v>62.67192886283317</v>
       </c>
-      <c r="E40" s="2">
-        <v>1</v>
-      </c>
-      <c r="F40" s="2">
-        <v>-3.7034849324053858</v>
-      </c>
-      <c r="G40" s="2">
-        <v>2.9360352148466551E-2</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A41" t="s">
-        <v>46</v>
+      <c r="E40">
+        <v>1</v>
+      </c>
+      <c r="F40">
+        <v>-3.703484932405386</v>
+      </c>
+      <c r="G40">
+        <v>0.02936035214846655</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>(Temperature_centered1.19 Age_centered-0.47) / (Temperature_centered-1.2 Age_centered0.5)</t>
+        </is>
       </c>
       <c r="B41">
-        <v>0.44691894558118461</v>
+        <v>0.4469189455811846</v>
       </c>
       <c r="C41">
-        <v>0.10995331224892289</v>
+        <v>0.1099533122489229</v>
       </c>
       <c r="D41">
-        <v>60.462271125491696</v>
+        <v>60.4622711254917</v>
       </c>
       <c r="E41">
         <v>1</v>
       </c>
       <c r="F41">
-        <v>-3.2735594123638858</v>
+        <v>-3.273559412363886</v>
       </c>
       <c r="G41">
         <v>0.1096935683829097</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A42" t="s">
-        <v>47</v>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>(Temperature_centered1.19 Age_centered-0.47) / Temperature_centered1.19 Age_centered0.5</t>
+        </is>
       </c>
       <c r="B42">
         <v>1.447873987085724</v>
       </c>
       <c r="C42">
-        <v>0.25454061247183452</v>
+        <v>0.2545406124718345</v>
       </c>
       <c r="D42">
-        <v>59.197927342924707</v>
+        <v>59.19792734292471</v>
       </c>
       <c r="E42">
         <v>1</v>
@@ -1572,64 +1416,70 @@
         <v>2.105175866235649</v>
       </c>
       <c r="G42">
-        <v>0.93018260371181383</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A43" t="s">
-        <v>48</v>
+        <v>0.9301826037118138</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>(Temperature_centered1.19 Age_centered-0.47) / Temperature_centered0.23 Age_centered0.5</t>
+        </is>
       </c>
       <c r="B43">
-        <v>0.41615202103121501</v>
+        <v>0.416152021031215</v>
       </c>
       <c r="C43">
-        <v>0.12466017598045361</v>
+        <v>0.1246601759804536</v>
       </c>
       <c r="D43">
-        <v>62.638472670183397</v>
+        <v>62.6384726701834</v>
       </c>
       <c r="E43">
         <v>1</v>
       </c>
       <c r="F43">
-        <v>-2.9266957887901239</v>
+        <v>-2.926695788790124</v>
       </c>
       <c r="G43">
-        <v>0.27055703373641699</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A44" t="s">
-        <v>49</v>
+        <v>0.270557033736417</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>(Temperature_centered1.19 Age_centered-0.47) / (Temperature_centered-1.2 Age_centered1.48)</t>
+        </is>
       </c>
       <c r="B44">
-        <v>0.40529859488134468</v>
+        <v>0.4052985948813447</v>
       </c>
       <c r="C44">
-        <v>0.14583313388627689</v>
+        <v>0.1458331338862769</v>
       </c>
       <c r="D44">
-        <v>57.195506054602042</v>
+        <v>57.19550605460204</v>
       </c>
       <c r="E44">
         <v>1</v>
       </c>
       <c r="F44">
-        <v>-2.5099769959652121</v>
+        <v>-2.509976995965212</v>
       </c>
       <c r="G44">
-        <v>0.62940474682812364</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A45" t="s">
-        <v>50</v>
+        <v>0.6294047468281236</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>(Temperature_centered1.19 Age_centered-0.47) / Temperature_centered1.19 Age_centered1.48</t>
+        </is>
       </c>
       <c r="B45">
         <v>2.27732217552995</v>
       </c>
       <c r="C45">
-        <v>1.1235983469536179</v>
+        <v>1.123598346953618</v>
       </c>
       <c r="D45">
         <v>60.91180245572675</v>
@@ -1641,21 +1491,23 @@
         <v>1.668066499522324</v>
       </c>
       <c r="G45">
-        <v>0.99907504663909452</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A46" t="s">
-        <v>51</v>
+        <v>0.9990750466390945</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>(Temperature_centered1.19 Age_centered-0.47) / Temperature_centered0.23 Age_centered1.48</t>
+        </is>
       </c>
       <c r="B46">
-        <v>0.90558924065528001</v>
+        <v>0.90558924065528</v>
       </c>
       <c r="C46">
-        <v>0.43116163274261871</v>
+        <v>0.4311616327426187</v>
       </c>
       <c r="D46">
-        <v>60.766775070506867</v>
+        <v>60.76677507050687</v>
       </c>
       <c r="E46">
         <v>1</v>
@@ -1667,81 +1519,89 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A47" t="s">
-        <v>52</v>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>(Temperature_centered0.23 Age_centered-0.47) / (Temperature_centered-1.2 Age_centered0.5)</t>
+        </is>
       </c>
       <c r="B47">
         <v>1.264152128606115</v>
       </c>
       <c r="C47">
-        <v>0.34573833593595632</v>
+        <v>0.3457383359359563</v>
       </c>
       <c r="D47">
-        <v>59.304704853665648</v>
+        <v>59.30470485366565</v>
       </c>
       <c r="E47">
         <v>1</v>
       </c>
       <c r="F47">
-        <v>0.85706242451020509</v>
+        <v>0.8570624245102051</v>
       </c>
       <c r="G47">
         <v>0.999999999999996</v>
       </c>
     </row>
-    <row r="48" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A48" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="B48" s="2">
-        <v>4.0954472859673254</v>
-      </c>
-      <c r="C48" s="2">
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>(Temperature_centered0.23 Age_centered-0.47) / Temperature_centered1.19 Age_centered0.5</t>
+        </is>
+      </c>
+      <c r="B48">
+        <v>4.095447285967325</v>
+      </c>
+      <c r="C48">
         <v>1.323929305953718</v>
       </c>
-      <c r="D48" s="2">
-        <v>61.701294595828493</v>
-      </c>
-      <c r="E48" s="2">
-        <v>1</v>
-      </c>
-      <c r="F48" s="2">
-        <v>4.3613148834022208</v>
-      </c>
-      <c r="G48" s="2">
-        <v>3.293102020212824E-3</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A49" t="s">
-        <v>54</v>
+      <c r="D48">
+        <v>61.70129459582849</v>
+      </c>
+      <c r="E48">
+        <v>1</v>
+      </c>
+      <c r="F48">
+        <v>4.361314883402221</v>
+      </c>
+      <c r="G48">
+        <v>0.003293102020212824</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>(Temperature_centered0.23 Age_centered-0.47) / Temperature_centered0.23 Age_centered0.5</t>
+        </is>
       </c>
       <c r="B49">
-        <v>1.1771249986420249</v>
+        <v>1.177124998642025</v>
       </c>
       <c r="C49">
-        <v>0.12797252297993791</v>
+        <v>0.1279725229799379</v>
       </c>
       <c r="D49">
-        <v>58.556407210394539</v>
+        <v>58.55640721039454</v>
       </c>
       <c r="E49">
         <v>1</v>
       </c>
       <c r="F49">
-        <v>1.5000070528809899</v>
+        <v>1.50000705288099</v>
       </c>
       <c r="G49">
-        <v>0.99994863166652714</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A50" t="s">
-        <v>55</v>
+        <v>0.9999486316665271</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>(Temperature_centered0.23 Age_centered-0.47) / (Temperature_centered-1.2 Age_centered1.48)</t>
+        </is>
       </c>
       <c r="B50">
-        <v>1.1464250654535011</v>
+        <v>1.146425065453501</v>
       </c>
       <c r="C50">
         <v>0.3910059651695188</v>
@@ -1753,139 +1613,151 @@
         <v>1</v>
       </c>
       <c r="F50">
-        <v>0.40065174370860168</v>
+        <v>0.4006517437086017</v>
       </c>
       <c r="G50">
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A51" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="B51" s="2">
-        <v>6.4416192336047056</v>
-      </c>
-      <c r="C51" s="2">
-        <v>3.4135010057289619</v>
-      </c>
-      <c r="D51" s="2">
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>(Temperature_centered0.23 Age_centered-0.47) / Temperature_centered1.19 Age_centered1.48</t>
+        </is>
+      </c>
+      <c r="B51">
+        <v>6.441619233604706</v>
+      </c>
+      <c r="C51">
+        <v>3.413501005728962</v>
+      </c>
+      <c r="D51">
         <v>62.59015102959588</v>
       </c>
-      <c r="E51" s="2">
-        <v>1</v>
-      </c>
-      <c r="F51" s="2">
+      <c r="E51">
+        <v>1</v>
+      </c>
+      <c r="F51">
         <v>3.515252839874524</v>
       </c>
-      <c r="G51" s="2">
-        <v>5.2884902713521982E-2</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A52" t="s">
-        <v>57</v>
+      <c r="G51">
+        <v>0.05288490271352198</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>(Temperature_centered0.23 Age_centered-0.47) / Temperature_centered0.23 Age_centered1.48</t>
+        </is>
       </c>
       <c r="B52">
-        <v>2.5615440507415439</v>
+        <v>2.561544050741544</v>
       </c>
       <c r="C52">
         <v>1.247244206881563</v>
       </c>
       <c r="D52">
-        <v>59.305377229148093</v>
+        <v>59.30537722914809</v>
       </c>
       <c r="E52">
         <v>1</v>
       </c>
       <c r="F52">
-        <v>1.9317905055321309</v>
+        <v>1.931790505532131</v>
       </c>
       <c r="G52">
-        <v>0.98084586958145492</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A53" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="B53" s="2">
+        <v>0.9808458695814549</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>(Temperature_centered-1.2 Age_centered0.5) / Temperature_centered1.19 Age_centered0.5</t>
+        </is>
+      </c>
+      <c r="B53">
         <v>3.239679144062404</v>
       </c>
-      <c r="C53" s="2">
-        <v>0.94234459210749055</v>
-      </c>
-      <c r="D53" s="2">
-        <v>61.947516453911767</v>
-      </c>
-      <c r="E53" s="2">
-        <v>1</v>
-      </c>
-      <c r="F53" s="2">
+      <c r="C53">
+        <v>0.9423445921074906</v>
+      </c>
+      <c r="D53">
+        <v>61.94751645391177</v>
+      </c>
+      <c r="E53">
+        <v>1</v>
+      </c>
+      <c r="F53">
         <v>4.041153937453112</v>
       </c>
-      <c r="G53" s="2">
-        <v>9.8086274678592655E-3</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A54" t="s">
-        <v>59</v>
+      <c r="G53">
+        <v>0.009808627467859266</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>(Temperature_centered-1.2 Age_centered0.5) / Temperature_centered0.23 Age_centered0.5</t>
+        </is>
       </c>
       <c r="B54">
-        <v>0.93115770800461495</v>
+        <v>0.9311577080046149</v>
       </c>
       <c r="C54">
-        <v>0.25334808869251602</v>
+        <v>0.253348088692516</v>
       </c>
       <c r="D54">
-        <v>61.189366393571923</v>
+        <v>61.18936639357192</v>
       </c>
       <c r="E54">
         <v>1</v>
       </c>
       <c r="F54">
-        <v>-0.26215446132042541</v>
+        <v>-0.2621544613204254</v>
       </c>
       <c r="G54">
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A55" t="s">
-        <v>60</v>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>(Temperature_centered-1.2 Age_centered0.5) / (Temperature_centered-1.2 Age_centered1.48)</t>
+        </is>
       </c>
       <c r="B55">
-        <v>0.90687270899711858</v>
+        <v>0.9068727089971186</v>
       </c>
       <c r="C55">
-        <v>0.25863551899118592</v>
+        <v>0.2586355189911859</v>
       </c>
       <c r="D55">
-        <v>56.606676154458832</v>
+        <v>56.60667615445883</v>
       </c>
       <c r="E55">
         <v>1</v>
       </c>
       <c r="F55">
-        <v>-0.34275915761121628</v>
+        <v>-0.3427591576112163</v>
       </c>
       <c r="G55">
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A56" t="s">
-        <v>61</v>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>(Temperature_centered-1.2 Age_centered0.5) / Temperature_centered1.19 Age_centered1.48</t>
+        </is>
       </c>
       <c r="B56">
-        <v>5.0956044670884628</v>
+        <v>5.095604467088463</v>
       </c>
       <c r="C56">
-        <v>2.8814560119115251</v>
+        <v>2.881456011911525</v>
       </c>
       <c r="D56">
-        <v>62.585053335670189</v>
+        <v>62.58505333567019</v>
       </c>
       <c r="E56">
         <v>1</v>
@@ -1894,113 +1766,123 @@
         <v>2.879645463866308</v>
       </c>
       <c r="G56">
-        <v>0.30250358290696572</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A57" t="s">
-        <v>62</v>
+        <v>0.3025035829069657</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>(Temperature_centered-1.2 Age_centered0.5) / Temperature_centered0.23 Age_centered1.48</t>
+        </is>
       </c>
       <c r="B57">
-        <v>2.0262941403784729</v>
+        <v>2.026294140378473</v>
       </c>
       <c r="C57">
-        <v>0.89147508935602493</v>
+        <v>0.8914750893560249</v>
       </c>
       <c r="D57">
-        <v>59.905845385730892</v>
+        <v>59.90584538573089</v>
       </c>
       <c r="E57">
         <v>1</v>
       </c>
       <c r="F57">
-        <v>1.6051893325758471</v>
+        <v>1.605189332575847</v>
       </c>
       <c r="G57">
-        <v>0.99965329632100453</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A58" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="B58" s="2">
-        <v>0.28742281769205918</v>
-      </c>
-      <c r="C58" s="2">
-        <v>8.2571798816967676E-2</v>
-      </c>
-      <c r="D58" s="2">
-        <v>62.868699007919268</v>
-      </c>
-      <c r="E58" s="2">
-        <v>1</v>
-      </c>
-      <c r="F58" s="2">
-        <v>-4.3399688176987379</v>
-      </c>
-      <c r="G58" s="2">
-        <v>3.4741080361897492E-3</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A59" t="s">
-        <v>64</v>
+        <v>0.9996532963210045</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>Temperature_centered1.19 Age_centered0.5 / Temperature_centered0.23 Age_centered0.5</t>
+        </is>
+      </c>
+      <c r="B58">
+        <v>0.2874228176920592</v>
+      </c>
+      <c r="C58">
+        <v>0.08257179881696768</v>
+      </c>
+      <c r="D58">
+        <v>62.86869900791927</v>
+      </c>
+      <c r="E58">
+        <v>1</v>
+      </c>
+      <c r="F58">
+        <v>-4.339968817698738</v>
+      </c>
+      <c r="G58">
+        <v>0.003474108036189749</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>Temperature_centered1.19 Age_centered0.5 / (Temperature_centered-1.2 Age_centered1.48)</t>
+        </is>
       </c>
       <c r="B59">
-        <v>0.27992670529092678</v>
+        <v>0.2799267052909268</v>
       </c>
       <c r="C59">
         <v>0.1055796494006649</v>
       </c>
       <c r="D59">
-        <v>56.873478145892193</v>
+        <v>56.87347814589219</v>
       </c>
       <c r="E59">
         <v>1</v>
       </c>
       <c r="F59">
-        <v>-3.3757487803484771</v>
+        <v>-3.375748780348477</v>
       </c>
       <c r="G59">
-        <v>8.4230628234347682E-2</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A60" t="s">
-        <v>65</v>
+        <v>0.08423062823434768</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>Temperature_centered1.19 Age_centered0.5 / Temperature_centered1.19 Age_centered1.48</t>
+        </is>
       </c>
       <c r="B60">
-        <v>1.5728731891328029</v>
+        <v>1.572873189132803</v>
       </c>
       <c r="C60">
-        <v>0.56443595107978561</v>
+        <v>0.5644359510797856</v>
       </c>
       <c r="D60">
-        <v>60.829970149758388</v>
+        <v>60.82997014975839</v>
       </c>
       <c r="E60">
         <v>1</v>
       </c>
       <c r="F60">
-        <v>1.2620751091075999</v>
+        <v>1.2620751091076</v>
       </c>
       <c r="G60">
-        <v>0.99999984857075486</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A61" t="s">
-        <v>66</v>
+        <v>0.9999998485707549</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>Temperature_centered1.19 Age_centered0.5 / Temperature_centered0.23 Age_centered1.48</t>
+        </is>
       </c>
       <c r="B61">
-        <v>0.62546136523803886</v>
+        <v>0.6254613652380389</v>
       </c>
       <c r="C61">
-        <v>0.25845006385959701</v>
+        <v>0.258450063859597</v>
       </c>
       <c r="D61">
-        <v>60.311039088203671</v>
+        <v>60.31103908820367</v>
       </c>
       <c r="E61">
         <v>1</v>
@@ -2009,67 +1891,73 @@
         <v>-1.135645206463787</v>
       </c>
       <c r="G61">
-        <v>0.99999999778117232</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A62" t="s">
-        <v>67</v>
+        <v>0.9999999977811723</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>Temperature_centered0.23 Age_centered0.5 / (Temperature_centered-1.2 Age_centered1.48)</t>
+        </is>
       </c>
       <c r="B62">
         <v>0.9739195640021745</v>
       </c>
       <c r="C62">
-        <v>0.31100501518221679</v>
+        <v>0.3110050151822168</v>
       </c>
       <c r="D62">
-        <v>57.980744842251639</v>
+        <v>57.98074484225164</v>
       </c>
       <c r="E62">
         <v>1</v>
       </c>
       <c r="F62">
-        <v>-8.2755403922198587E-2</v>
+        <v>-0.08275540392219859</v>
       </c>
       <c r="G62">
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A63" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="B63" s="2">
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>Temperature_centered0.23 Age_centered0.5 / Temperature_centered1.19 Age_centered1.48</t>
+        </is>
+      </c>
+      <c r="B63">
         <v>5.472332369999787</v>
       </c>
-      <c r="C63" s="2">
-        <v>2.5747454150197249</v>
-      </c>
-      <c r="D63" s="2">
-        <v>63.592940430667788</v>
-      </c>
-      <c r="E63" s="2">
-        <v>1</v>
-      </c>
-      <c r="F63" s="2">
+      <c r="C63">
+        <v>2.574745415019725</v>
+      </c>
+      <c r="D63">
+        <v>63.59294043066779</v>
+      </c>
+      <c r="E63">
+        <v>1</v>
+      </c>
+      <c r="F63">
         <v>3.612532016285066</v>
       </c>
-      <c r="G63" s="2">
-        <v>3.878081042368442E-2</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A64" t="s">
-        <v>69</v>
+      <c r="G63">
+        <v>0.03878081042368442</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>Temperature_centered0.23 Age_centered0.5 / Temperature_centered0.23 Age_centered1.48</t>
+        </is>
       </c>
       <c r="B64">
-        <v>2.1761019889108089</v>
+        <v>2.176101988910809</v>
       </c>
       <c r="C64">
-        <v>0.93768513467084136</v>
+        <v>0.9376851346708414</v>
       </c>
       <c r="D64">
-        <v>59.174922698897198</v>
+        <v>59.1749226988972</v>
       </c>
       <c r="E64">
         <v>1</v>
@@ -2078,44 +1966,48 @@
         <v>1.804439281180402</v>
       </c>
       <c r="G64">
-        <v>0.99467238619993026</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A65" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="B65" s="2">
-        <v>5.6188750819544779</v>
-      </c>
-      <c r="C65" s="2">
+        <v>0.9946723861999303</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>(Temperature_centered-1.2 Age_centered1.48) / Temperature_centered1.19 Age_centered1.48</t>
+        </is>
+      </c>
+      <c r="B65">
+        <v>5.618875081954478</v>
+      </c>
+      <c r="C65">
         <v>2.682230746774255</v>
       </c>
-      <c r="D65" s="2">
-        <v>61.392269080513763</v>
-      </c>
-      <c r="E65" s="2">
-        <v>1</v>
-      </c>
-      <c r="F65" s="2">
-        <v>3.6159891074688928</v>
-      </c>
-      <c r="G65" s="2">
-        <v>3.9184850753534513E-2</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A66" t="s">
-        <v>71</v>
+      <c r="D65">
+        <v>61.39226908051376</v>
+      </c>
+      <c r="E65">
+        <v>1</v>
+      </c>
+      <c r="F65">
+        <v>3.615989107468893</v>
+      </c>
+      <c r="G65">
+        <v>0.03918485075353451</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>(Temperature_centered-1.2 Age_centered1.48) / Temperature_centered0.23 Age_centered1.48</t>
+        </is>
       </c>
       <c r="B66">
-        <v>2.2343754754945562</v>
+        <v>2.234375475494556</v>
       </c>
       <c r="C66">
         <v>1.002147048467469</v>
       </c>
       <c r="D66">
-        <v>57.601593028081879</v>
+        <v>57.60159302808188</v>
       </c>
       <c r="E66">
         <v>1</v>
@@ -2124,30 +2016,32 @@
         <v>1.792503846492614</v>
       </c>
       <c r="G66">
-        <v>0.99539968211868046</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A67" t="s">
-        <v>72</v>
+        <v>0.9953996821186805</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>Temperature_centered1.19 Age_centered1.48 / Temperature_centered0.23 Age_centered1.48</t>
+        </is>
       </c>
       <c r="B67">
-        <v>0.39765530340235788</v>
+        <v>0.3976553034023579</v>
       </c>
       <c r="C67">
         <v>0.1981594727628351</v>
       </c>
       <c r="D67">
-        <v>61.088060885158207</v>
+        <v>61.08806088515821</v>
       </c>
       <c r="E67">
         <v>1</v>
       </c>
       <c r="F67">
-        <v>-1.8505584164288369</v>
+        <v>-1.850558416428837</v>
       </c>
       <c r="G67">
-        <v>0.99111774797722718</v>
+        <v>0.9911177479772272</v>
       </c>
     </row>
   </sheetData>
